--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e8a77377a34f45/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{9CD681B3-809E-4AFE-B29A-F0749E345ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5220CA7E-D701-4212-92E8-82C48D026C5D}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{9CD681B3-809E-4AFE-B29A-F0749E345ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BDF850-F6F7-46AF-A9D6-282EA365A9EE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A751847-8A50-4744-A578-69ECBCC80F13}"/>
+    <workbookView minimized="1" xWindow="5844" yWindow="0" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0A751847-8A50-4744-A578-69ECBCC80F13}"/>
   </bookViews>
   <sheets>
     <sheet name="big " sheetId="1" r:id="rId1"/>
+    <sheet name="small " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="27">
   <si>
     <t>n1</t>
   </si>
@@ -98,6 +99,21 @@
   </si>
   <si>
     <t xml:space="preserve">reflect </t>
+  </si>
+  <si>
+    <t>zca_epsilon</t>
+  </si>
+  <si>
+    <t>zca_whitening</t>
+  </si>
+  <si>
+    <t>128x128</t>
+  </si>
+  <si>
+    <t>256x256</t>
+  </si>
+  <si>
+    <t>reflect</t>
   </si>
 </sst>
 </file>
@@ -133,13 +149,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F69E8AC-E466-4E78-91B8-AB2DC1C84E4C}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,9 +490,12 @@
     <col min="11" max="11" width="11.109375" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,10 +539,16 @@
         <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>256</v>
       </c>
@@ -563,11 +591,17 @@
       <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>0.87</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>350</v>
       </c>
@@ -610,11 +644,17 @@
       <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>256</v>
       </c>
@@ -657,11 +697,17 @@
       <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>256</v>
       </c>
@@ -704,11 +750,17 @@
       <c r="N5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>0.79</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>256</v>
       </c>
@@ -751,11 +803,17 @@
       <c r="N6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>256</v>
       </c>
@@ -798,11 +856,17 @@
       <c r="N7" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>0.81</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>256</v>
       </c>
@@ -845,11 +909,17 @@
       <c r="N8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>256</v>
       </c>
@@ -892,11 +962,17 @@
       <c r="N9" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>256</v>
       </c>
@@ -939,11 +1015,17 @@
       <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <v>0.79</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>256</v>
       </c>
@@ -986,11 +1068,17 @@
       <c r="N11" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>256</v>
       </c>
@@ -1033,11 +1121,17 @@
       <c r="N12" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
         <v>0.84</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>256</v>
       </c>
@@ -1080,11 +1174,17 @@
       <c r="N13" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>0.82</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>256</v>
       </c>
@@ -1127,11 +1227,17 @@
       <c r="N14" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <v>0.82</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>256</v>
       </c>
@@ -1174,11 +1280,17 @@
       <c r="N15" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
         <v>0.82</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>256</v>
       </c>
@@ -1221,7 +1333,119 @@
       <c r="N16" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>256</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="3">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>256</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
         <v>0.82</v>
       </c>
     </row>
@@ -1229,4 +1453,933 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467D4B1-B23C-4093-87EF-8645A45C5424}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>256</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>350</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>256</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>256</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>256</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>256</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>256</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>256</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>256</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>256</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>256</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>256</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>256</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>256</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>256</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="3">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>256</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.9215686274509803E-3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>